--- a/Mifos Automation Excels/Client/Scenario1-Chaithanyaprod-TR2-Makeundolastdisbursment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario1-Chaithanyaprod-TR2-Makeundolastdisbursment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Undo Last Disbursel" sheetId="9" r:id="rId1"/>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>2801</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2800</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
